--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2104153.985129908</v>
+        <v>2102266.403613506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>364.450922290338</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.94182778688864</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.769908071584571</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>90.56668472372523</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>158.9322597098727</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>30.19289144459984</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>108.0338291607026</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>105.255405018896</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>161.9446414978758</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.4033490602732</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>166.6273369527608</v>
+        <v>27.07419625387021</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>146.2787299119462</v>
       </c>
       <c r="U22" t="n">
-        <v>255.3303665522257</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>219.8254530258252</v>
       </c>
       <c r="V25" t="n">
-        <v>145.8066325228119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002173</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>45.21952718910637</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>57.41378701534654</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.23070601801216</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437423</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.71057173897911</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>10.45074535273677</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789577</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.695321531225</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F2" t="n">
-        <v>865.7094167416178</v>
+        <v>575.54120256299</v>
       </c>
       <c r="G2" t="n">
-        <v>447.7456086398047</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5508886758075</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,16 +4410,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>726.3411982755407</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>726.3411982755407</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1314.38774159731</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.38774159731</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>956.12204299056</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>570.3337903923157</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>159.3478856027081</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>145.424481541299</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>145.424481541299</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,46 +4647,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.915471247702</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>1491.915471247702</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1106.127218649458</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>695.1413138598505</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2335.588333528591</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5036,40 +5036,40 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>391.6040140015125</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079765</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>358.8683222506741</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1278.716087159422</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1278.716087159422</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V13" t="n">
-        <v>1278.716087159422</v>
+        <v>898.792518248838</v>
       </c>
       <c r="W13" t="n">
-        <v>989.2989171224613</v>
+        <v>792.4739273206599</v>
       </c>
       <c r="X13" t="n">
-        <v>761.3093662244439</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="Y13" t="n">
-        <v>540.5167870809138</v>
+        <v>564.4843764226425</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5270,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635876</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.8401545872508</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="C16" t="n">
-        <v>713.8401545872508</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>407.6874849156466</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>407.6874849156466</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>260.7975374177362</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>934.632733730781</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>934.632733730781</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y16" t="n">
-        <v>713.8401545872508</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7175987609741</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C19" t="n">
-        <v>506.7814158330672</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207314</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383383</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273991</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0280401273991</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>675.7175987609741</v>
+        <v>893.0227887507926</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.7175987609741</v>
+        <v>893.0227887507926</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>582.1916992613344</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U22" t="n">
-        <v>1017.221394183544</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V22" t="n">
-        <v>762.5369059776569</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W22" t="n">
-        <v>473.1197359406963</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>245.1301850426789</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227922</v>
+        <v>853.1649331156623</v>
       </c>
       <c r="V25" t="n">
-        <v>727.647686332073</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514074</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,7 +6382,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688071</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305957</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,25 +6528,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163757</v>
+        <v>656.5190452905601</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584499</v>
+        <v>543.3437276440239</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274848</v>
+        <v>543.3437276440239</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264624</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276531</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569677</v>
@@ -6619,16 +6619,16 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1925.569754618966</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1781.410609815889</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1613.386059886766</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1380.018286381695</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1181.094663457179</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818913</v>
+        <v>947.4383587015884</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652447</v>
+        <v>947.4383587015884</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652447</v>
+        <v>782.4066448394291</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7078,34 +7078,34 @@
         <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010313</v>
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,19 +7257,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>171.2966883299256</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270662</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>113.5137318976867</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>181.267593317695</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.548926965501766</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>14.11964927631775</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>59.08231843627637</v>
+        <v>198.6354591351669</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>75.26883114644303</v>
       </c>
       <c r="U22" t="n">
-        <v>30.90698584635169</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>66.41189937275217</v>
       </c>
       <c r="V25" t="n">
-        <v>106.3310108010161</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338592</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>173.3651261629884</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>54.62977745472433</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965534</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.31035042249901</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="8">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583908</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
@@ -26344,10 +26344,10 @@
         <v>554203.1946583907</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583907</v>
       </c>
       <c r="O2" t="n">
         <v>554203.1946583908</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284558</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
@@ -26436,25 +26436,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106723</v>
+        <v>40339.23010106728</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819124</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,13 +26494,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.630406087</v>
+        <v>-284256.6304060871</v>
       </c>
       <c r="C6" t="n">
+        <v>305711.2488084576</v>
+      </c>
+      <c r="D6" t="n">
         <v>305711.2488084571</v>
       </c>
-      <c r="D6" t="n">
-        <v>305711.2488084569</v>
-      </c>
       <c r="E6" t="n">
-        <v>-111432.7393665765</v>
+        <v>-111530.1984925489</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103196</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103195</v>
+        <v>413629.8379843472</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103195</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103194</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177268</v>
+        <v>237206.6187917545</v>
       </c>
       <c r="K6" t="n">
-        <v>368079.8414819787</v>
+        <v>368061.3477440443</v>
       </c>
       <c r="L6" t="n">
         <v>401551.7872093072</v>
       </c>
       <c r="M6" t="n">
-        <v>277093.6787763373</v>
+        <v>277093.678776337</v>
       </c>
       <c r="N6" t="n">
         <v>411894.6940101741</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,10 +26765,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108368</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>49.333247730457</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>85.98948845797261</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>27.35284188332973</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>61.36463152113602</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>245.2407793169701</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>254.8519103109223</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>24.28551113021188</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29521,13 +29521,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>255.4503488645142</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>321.8721269178649</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412253</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706459</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37625,10 +37625,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
